--- a/biology/Botanique/Cynosurus/Cynosurus.xlsx
+++ b/biology/Botanique/Cynosurus/Cynosurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynosurus est un genre de plantes de la famille des Poacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (2 mai 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (2 mai 2022) :
 Cynosurus balansae Coss. &amp; Durieu
 Cynosurus coloratus Lehm. ex Steud.
 Cynosurus cristatus L.
@@ -523,10 +537,10 @@
 Cynosurus peltieri Maire
 Cynosurus polybracteatus Poir.
 Cynosurus turcomanicus Proskur.
-Selon ITIS      (2 mai 2022)[2] :
+Selon ITIS      (2 mai 2022) :
 Cynosurus cristatus L.
 Cynosurus echinatus L.
-Selon World Checklist of Selected Plant Families (WCSP)  (2 mai 2022)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (2 mai 2022) :
 Cynosurus balansae Coss. &amp; Durieu (1854)
 Cynosurus coloratus Lehm. ex Steud. (1841)
 Cynosurus cristatus L. (1753)
@@ -538,11 +552,11 @@
 Cynosurus peltieri Maire (1931)
 Cynosurus polybracteatus Poir. (1798)
 Cynosurus turcomanicus Proskur., Byull. Moskovsk. Obshch. Isp. Prir., Otd. Biol., n.s. (1976)
-Selon NCBI  (2 mai 2022)[4] :
+Selon NCBI  (2 mai 2022) :
 Cynosurus cristatus L.
 Cynosurus echinatus L.
 Cynosurus elegans Desf.
-Selon The Plant List            (2 mai 2022)[5] :
+Selon The Plant List            (2 mai 2022) :
 Cynosurus balansae Coss. &amp; Durieu
 Cynosurus coloratus Lehm. ex Steud.
 Cynosurus cristatus L.
@@ -552,7 +566,7 @@
 Cynosurus peltieri Maire
 Cynosurus polybracteatus Poir.
 Cynosurus turcomanicus Proskur.
-Selon Tropicos                                           (2 mai 2022)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Cynosurus aegyptiacus Forssk.
 Cynosurus aegyptius L.
 Cynosurus ara Ham. ex Wall.
